--- a/algoritmos.xlsx
+++ b/algoritmos.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Documents\faculdade\projeto3-MachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1278E9-2D9E-4AA0-98C2-4A46C43A287E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1BF956-0CA8-4A4E-A158-61C94FFB6B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="J48" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Fold1</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Fold3</t>
   </si>
   <si>
-    <t>J48 (AD)</t>
-  </si>
-  <si>
     <t>Classe 0</t>
   </si>
   <si>
@@ -61,18 +58,6 @@
     <t>DP</t>
   </si>
   <si>
-    <t xml:space="preserve">   6 101 |   b = 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   a   b   &lt;-- classified as</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  57  10 |   a = 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   5 101 |   b = 1</t>
-  </si>
-  <si>
     <t>Fold1 x Classe1</t>
   </si>
   <si>
@@ -97,26 +82,79 @@
     <t>Média Modelo</t>
   </si>
   <si>
-    <t xml:space="preserve">  51  15 |   a = 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  a  b   &lt;-- classified as</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 61  6 |  a = 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10 97 |  b = 1</t>
-  </si>
-  <si>
     <t>Pareado</t>
+  </si>
+  <si>
+    <t>SVM (SMO)</t>
+  </si>
+  <si>
+    <t>KNN (IBK)</t>
+  </si>
+  <si>
+    <t>AD (J48)</t>
+  </si>
+  <si>
+    <t>Poliuria</t>
+  </si>
+  <si>
+    <t>Polidipsia</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>PerdaPeso</t>
+  </si>
+  <si>
+    <t>RestricaoParcialMovimento</t>
+  </si>
+  <si>
+    <t>Polifagia</t>
+  </si>
+  <si>
+    <t>Irritabilidade</t>
+  </si>
+  <si>
+    <t>Alopecia</t>
+  </si>
+  <si>
+    <t>VisaoTurva</t>
+  </si>
+  <si>
+    <t>Fraqueza</t>
+  </si>
+  <si>
+    <t>Idade</t>
+  </si>
+  <si>
+    <t>RigidezMuscular</t>
+  </si>
+  <si>
+    <t>CandidiaseGenital</t>
+  </si>
+  <si>
+    <t>Obesidade</t>
+  </si>
+  <si>
+    <t>AtrasoCicatrizacao</t>
+  </si>
+  <si>
+    <t>Coceira</t>
+  </si>
+  <si>
+    <t>RandomForest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +193,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,8 +226,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -291,57 +354,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -353,9 +399,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -368,6 +496,1211 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Ganho de Informação Rankeado</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$B$1:$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Poliuria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Polidipsia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Genero</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PerdaPeso</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RestricaoParcialMovimento</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Polifagia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Irritabilidade</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Alopecia</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>VisaoTurva</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Fraqueza</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Idade</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>RigidezMuscular</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>CandidiaseGenital</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Obesidade</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>AtrasoCicatrizacao</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Coceira</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$C$1:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.000_-;\-* #,##0.000_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.36225099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35905599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16342000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14877199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.144653</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7842000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2872999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1163E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6606000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2666000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2394000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0973E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0460000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8509999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5950000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2899999999999999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-343C-4BA6-ABB2-398D3DD346F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="425068463"/>
+        <c:axId val="425068879"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="425068463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="425068879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="425068879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="425068463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>356153</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57BBC1FE-78E1-424C-9BF5-56C90DFDECC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -633,224 +1966,451 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
       <c r="B2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="6">
         <v>88.4</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="10">
+      <c r="C4" s="31">
+        <v>89.4</v>
+      </c>
+      <c r="D4" s="36">
+        <v>88.4</v>
+      </c>
+      <c r="E4" s="21">
+        <v>84.9</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6">
         <v>92.4</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="H4" s="31">
+        <v>92.8</v>
+      </c>
+      <c r="I4" s="36">
+        <v>92.4</v>
+      </c>
+      <c r="J4" s="21">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="6">
         <v>82.9</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="10">
+      <c r="C5" s="33">
+        <v>91.2</v>
+      </c>
+      <c r="D5" s="37">
+        <v>84.8</v>
+      </c>
+      <c r="E5" s="21">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6">
         <v>90.6</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="H5" s="31">
+        <v>94.3</v>
+      </c>
+      <c r="I5" s="36">
+        <v>90.7</v>
+      </c>
+      <c r="J5" s="21">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="7">
         <v>88.4</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="11">
+      <c r="C6" s="32">
         <v>93.1</v>
       </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>18</v>
+      <c r="D6" s="38">
+        <v>94.2</v>
+      </c>
+      <c r="E6" s="22">
+        <v>88.2</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="7">
+        <v>93.1</v>
+      </c>
+      <c r="H6" s="32">
+        <v>95</v>
+      </c>
+      <c r="I6" s="38">
+        <v>96.2</v>
+      </c>
+      <c r="J6" s="22">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <f>AVERAGE(B4:B6)</f>
         <v>86.566666666666677</v>
       </c>
-      <c r="E8">
+      <c r="C8" s="1">
+        <f>AVERAGE(C4:C6)</f>
+        <v>91.233333333333348</v>
+      </c>
+      <c r="D8" s="1">
+        <f>AVERAGE(D4:D6)</f>
+        <v>89.133333333333326</v>
+      </c>
+      <c r="E8" s="1">
         <f>AVERAGE(E4:E6)</f>
+        <v>84.833333333333329</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGE(G4:G6)</f>
         <v>92.033333333333346</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="24">
+      <c r="H8">
+        <f>AVERAGE(H4:H6)</f>
+        <v>94.033333333333346</v>
+      </c>
+      <c r="I8">
+        <f>AVERAGE(I4:I6)</f>
+        <v>93.100000000000009</v>
+      </c>
+      <c r="J8">
+        <f>AVERAGE(J4:J6)</f>
+        <v>91.766666666666666</v>
+      </c>
+      <c r="L8" s="24"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13">
         <f>_xlfn.STDEV.S(B4:B6)</f>
         <v>3.1754264805429413</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21">
+      <c r="C9" s="13">
+        <f>_xlfn.STDEV.S(C4:C6)</f>
+        <v>1.8502252115170499</v>
+      </c>
+      <c r="D9" s="13">
+        <f>_xlfn.STDEV.S(D4:D6)</f>
+        <v>4.7427137098219783</v>
+      </c>
+      <c r="E9" s="13">
         <f>_xlfn.STDEV.S(E4:E6)</f>
+        <v>3.4004901607464362</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
+        <f>_xlfn.STDEV.S(G4:G6)</f>
         <v>1.2897028081435418</v>
       </c>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="H9" s="10">
+        <f>_xlfn.STDEV.S(H4:H6)</f>
+        <v>1.1239810200058258</v>
+      </c>
+      <c r="I9" s="10">
+        <f>_xlfn.STDEV.S(I4:I6)</f>
+        <v>2.8160255680657444</v>
+      </c>
+      <c r="J9" s="10">
+        <f>_xlfn.STDEV.S(J4:J6)</f>
+        <v>1.4011899704655788</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="40">
         <v>88.4</v>
       </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C12" s="33">
+        <v>89.4</v>
+      </c>
+      <c r="D12" s="37">
+        <v>88.4</v>
+      </c>
+      <c r="E12" s="21">
+        <v>84.9</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="26">
+        <v>82.9</v>
+      </c>
+      <c r="C13" s="33">
+        <v>91.2</v>
+      </c>
+      <c r="D13" s="37">
+        <v>84.8</v>
+      </c>
+      <c r="E13" s="21">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="26">
+        <v>88.4</v>
+      </c>
+      <c r="C14" s="33">
+        <v>93.1</v>
+      </c>
+      <c r="D14" s="37">
+        <v>94.2</v>
+      </c>
+      <c r="E14" s="21">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="26">
+        <v>92.4</v>
+      </c>
+      <c r="C15" s="33">
+        <v>92.8</v>
+      </c>
+      <c r="D15" s="37">
+        <v>92.4</v>
+      </c>
+      <c r="E15" s="21">
+        <v>91.7</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="26">
+        <v>90.6</v>
+      </c>
+      <c r="C16" s="33">
+        <v>94.3</v>
+      </c>
+      <c r="D16" s="37">
+        <v>90.7</v>
+      </c>
+      <c r="E16" s="21">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7">
+        <v>93.1</v>
+      </c>
+      <c r="C17" s="41">
+        <v>95</v>
+      </c>
+      <c r="D17" s="42">
+        <v>96.2</v>
+      </c>
+      <c r="E17" s="22">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="B13" s="4">
-        <v>82.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4">
-        <v>88.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4">
-        <v>92.4</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="4">
-        <v>90.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="4">
-        <v>93.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>19</v>
       </c>
       <c r="B19" s="1">
         <f>AVERAGE(B12:B17)</f>
         <v>89.300000000000011</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="21">
+      <c r="C19" s="1">
+        <f t="shared" ref="C19:E19" si="0">AVERAGE(C12:C17)</f>
+        <v>92.63333333333334</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>91.11666666666666</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>88.300000000000011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="10">
         <f>_xlfn.STDEV.S(B12:B17)</f>
         <v>3.6964848166873319</v>
       </c>
-      <c r="C20" s="21"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C20" s="10">
+        <f t="shared" ref="C20:E20" si="1">_xlfn.STDEV.S(C12:C17)</f>
+        <v>2.0558858593479004</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="1"/>
+        <v>4.1097039633855239</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="1"/>
+        <v>4.4533133732087613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -858,65 +2418,148 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87DC608-1E48-445E-B1CC-60E6FCD7D0DA}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384908BB-DC3A-4FC9-8AD1-565ED620B0EC}">
+  <dimension ref="B1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="34">
+        <v>0.36225099999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="34">
+        <v>0.35905599999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" s="34">
+        <v>0.16342000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" s="34">
+        <v>0.14877199999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
+      <c r="C5" s="34">
+        <v>0.144653</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="34">
+        <v>8.7842000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="34">
+        <v>7.2872999999999993E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="34">
+        <v>5.1163E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="34">
+        <v>4.6606000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="34">
+        <v>4.2666000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="34">
+        <v>2.2394000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="34">
+        <v>1.0973E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="34">
+        <v>9.0460000000000002E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="34">
+        <v>3.8509999999999998E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="34">
+        <v>1.5950000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="34">
+        <v>1.2899999999999999E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/algoritmos.xlsx
+++ b/algoritmos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Documents\faculdade\projeto3-MachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1BF956-0CA8-4A4E-A158-61C94FFB6B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD9E0B9-F42E-44FD-BA2F-4F4725E12A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Planilha1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Fold1</t>
   </si>
@@ -143,6 +144,12 @@
   </si>
   <si>
     <t>RandomForest</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
+  </si>
+  <si>
+    <t>Naive Bayes</t>
   </si>
 </sst>
 </file>
@@ -152,7 +159,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -201,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +248,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -387,7 +406,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -399,15 +417,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -420,64 +498,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -591,6 +639,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-529F-4BE5-8A09-2D07A1D48A52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -605,6 +658,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-529F-4BE5-8A09-2D07A1D48A52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -619,6 +677,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-529F-4BE5-8A09-2D07A1D48A52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -633,6 +696,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-529F-4BE5-8A09-2D07A1D48A52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -647,6 +715,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-529F-4BE5-8A09-2D07A1D48A52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -661,6 +734,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-529F-4BE5-8A09-2D07A1D48A52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -677,6 +755,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-529F-4BE5-8A09-2D07A1D48A52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -693,6 +776,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-529F-4BE5-8A09-2D07A1D48A52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -709,6 +797,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-529F-4BE5-8A09-2D07A1D48A52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -725,6 +818,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-529F-4BE5-8A09-2D07A1D48A52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -741,6 +839,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-529F-4BE5-8A09-2D07A1D48A52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -757,6 +860,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-529F-4BE5-8A09-2D07A1D48A52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -774,6 +882,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-529F-4BE5-8A09-2D07A1D48A52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -791,6 +904,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-529F-4BE5-8A09-2D07A1D48A52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -808,6 +926,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-529F-4BE5-8A09-2D07A1D48A52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -825,6 +948,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-529F-4BE5-8A09-2D07A1D48A52}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1966,10 +2094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1978,176 +2106,215 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="41"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="16" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="38"/>
+    </row>
+    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="28" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="J3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="K3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="L3" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="6">
         <v>88.4</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="21">
         <v>89.4</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="26">
         <v>88.4</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="47"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="13">
         <v>84.9</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6">
+      <c r="H4" s="5"/>
+      <c r="I4" s="6">
         <v>92.4</v>
       </c>
-      <c r="H4" s="31">
+      <c r="J4" s="21">
         <v>92.8</v>
       </c>
-      <c r="I4" s="36">
+      <c r="K4" s="26">
         <v>92.4</v>
       </c>
-      <c r="J4" s="21">
+      <c r="L4" s="47"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="13">
         <v>91.7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
         <v>82.9</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="23">
         <v>91.2</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="27">
         <v>84.8</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="48"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="13">
         <v>81.400000000000006</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6">
+      <c r="H5" s="5"/>
+      <c r="I5" s="6">
         <v>90.6</v>
       </c>
-      <c r="H5" s="31">
+      <c r="J5" s="21">
         <v>94.3</v>
       </c>
-      <c r="I5" s="36">
+      <c r="K5" s="26">
         <v>90.7</v>
       </c>
-      <c r="J5" s="21">
+      <c r="L5" s="48"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="13">
         <v>90.4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="7">
         <v>88.4</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="22">
         <v>93.1</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="28">
         <v>94.2</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="49"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="14">
         <v>88.2</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7">
+      <c r="H6" s="5"/>
+      <c r="I6" s="7">
         <v>93.1</v>
       </c>
-      <c r="H6" s="32">
+      <c r="J6" s="22">
         <v>95</v>
       </c>
-      <c r="I6" s="38">
+      <c r="K6" s="28">
         <v>96.2</v>
       </c>
-      <c r="J6" s="22">
+      <c r="L6" s="49"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="14">
         <v>93.2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1">
@@ -2162,209 +2329,267 @@
         <f>AVERAGE(D4:D6)</f>
         <v>89.133333333333326</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="1" t="e">
         <f>AVERAGE(E4:E6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" s="1" t="e">
+        <f>AVERAGE(F4:F6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="1">
+        <f>AVERAGE(G4:G6)</f>
         <v>84.833333333333329</v>
-      </c>
-      <c r="G8">
-        <f>AVERAGE(G4:G6)</f>
-        <v>92.033333333333346</v>
-      </c>
-      <c r="H8">
-        <f>AVERAGE(H4:H6)</f>
-        <v>94.033333333333346</v>
       </c>
       <c r="I8">
         <f>AVERAGE(I4:I6)</f>
-        <v>93.100000000000009</v>
+        <v>92.033333333333346</v>
       </c>
       <c r="J8">
         <f>AVERAGE(J4:J6)</f>
+        <v>94.033333333333346</v>
+      </c>
+      <c r="K8">
+        <f>AVERAGE(K4:K6)</f>
+        <v>93.100000000000009</v>
+      </c>
+      <c r="L8" t="e">
+        <f t="shared" ref="L8:M8" si="0">AVERAGE(L4:L6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8">
+        <f>AVERAGE(N4:N6)</f>
         <v>91.766666666666666</v>
       </c>
-      <c r="L8" s="24"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <f>_xlfn.STDEV.S(B4:B6)</f>
         <v>3.1754264805429413</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <f>_xlfn.STDEV.S(C4:C6)</f>
         <v>1.8502252115170499</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <f>_xlfn.STDEV.S(D4:D6)</f>
         <v>4.7427137098219783</v>
       </c>
-      <c r="E9" s="13">
-        <f>_xlfn.STDEV.S(E4:E6)</f>
+      <c r="E9" s="12" t="e">
+        <f t="shared" ref="E9:F9" si="1">_xlfn.STDEV.S(E4:E6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="12">
+        <f>_xlfn.STDEV.S(G4:G6)</f>
         <v>3.4004901607464362</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10">
-        <f>_xlfn.STDEV.S(G4:G6)</f>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9">
+        <f>_xlfn.STDEV.S(I4:I6)</f>
         <v>1.2897028081435418</v>
       </c>
-      <c r="H9" s="10">
-        <f>_xlfn.STDEV.S(H4:H6)</f>
+      <c r="J9" s="9">
+        <f>_xlfn.STDEV.S(J4:J6)</f>
         <v>1.1239810200058258</v>
       </c>
-      <c r="I9" s="10">
-        <f>_xlfn.STDEV.S(I4:I6)</f>
+      <c r="K9" s="9">
+        <f>_xlfn.STDEV.S(K4:K6)</f>
         <v>2.8160255680657444</v>
       </c>
-      <c r="J9" s="10">
-        <f>_xlfn.STDEV.S(J4:J6)</f>
+      <c r="L9" s="9" t="e">
+        <f t="shared" ref="L9:M9" si="2">_xlfn.STDEV.S(L4:L6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="9" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" s="9">
+        <f>_xlfn.STDEV.S(N4:N6)</f>
         <v>1.4011899704655788</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+    <row r="10" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="L11" t="s">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="P11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="30">
         <v>88.4</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="23">
         <v>89.4</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="27">
         <v>88.4</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="48"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="13">
         <v>84.9</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="17">
         <v>82.9</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="23">
         <v>91.2</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="27">
         <v>84.8</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="48"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="13">
         <v>81.400000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="17">
         <v>88.4</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="23">
         <v>93.1</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="27">
         <v>94.2</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="48"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="13">
         <v>88.2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="17">
         <v>92.4</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="23">
         <v>92.8</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="27">
         <v>92.4</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="48"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="13">
         <v>91.7</v>
       </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="17">
         <v>90.6</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="23">
         <v>94.3</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="27">
         <v>90.7</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="48"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="13">
         <v>90.4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="7">
         <v>93.1</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="31">
         <v>95</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="32">
         <v>96.2</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="14">
         <v>93.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="1">
@@ -2372,45 +2597,61 @@
         <v>89.300000000000011</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ref="C19:E19" si="0">AVERAGE(C12:C17)</f>
+        <f t="shared" ref="C19:G19" si="3">AVERAGE(C12:C17)</f>
         <v>92.63333333333334</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>91.11666666666666</v>
       </c>
-      <c r="E19" s="1">
-        <f t="shared" si="0"/>
+      <c r="E19" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="3"/>
         <v>88.300000000000011</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <f>_xlfn.STDEV.S(B12:B17)</f>
         <v>3.6964848166873319</v>
       </c>
-      <c r="C20" s="10">
-        <f t="shared" ref="C20:E20" si="1">_xlfn.STDEV.S(C12:C17)</f>
+      <c r="C20" s="9">
+        <f t="shared" ref="C20:G20" si="4">_xlfn.STDEV.S(C12:C17)</f>
         <v>2.0558858593479004</v>
       </c>
-      <c r="D20" s="10">
-        <f t="shared" si="1"/>
+      <c r="D20" s="9">
+        <f t="shared" si="4"/>
         <v>4.1097039633855239</v>
       </c>
-      <c r="E20" s="10">
-        <f t="shared" si="1"/>
+      <c r="E20" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="4"/>
         <v>4.4533133732087613</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="B1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2434,7 +2675,7 @@
       <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="34">
+      <c r="C1" s="24">
         <v>0.36225099999999999</v>
       </c>
     </row>
@@ -2442,7 +2683,7 @@
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="24">
         <v>0.35905599999999999</v>
       </c>
     </row>
@@ -2450,7 +2691,7 @@
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="24">
         <v>0.16342000000000001</v>
       </c>
     </row>
@@ -2458,7 +2699,7 @@
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="24">
         <v>0.14877199999999999</v>
       </c>
     </row>
@@ -2466,7 +2707,7 @@
       <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="24">
         <v>0.144653</v>
       </c>
     </row>
@@ -2474,7 +2715,7 @@
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="24">
         <v>8.7842000000000003E-2</v>
       </c>
     </row>
@@ -2482,7 +2723,7 @@
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="24">
         <v>7.2872999999999993E-2</v>
       </c>
     </row>
@@ -2490,7 +2731,7 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="24">
         <v>5.1163E-2</v>
       </c>
     </row>
@@ -2498,7 +2739,7 @@
       <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="24">
         <v>4.6606000000000002E-2</v>
       </c>
     </row>
@@ -2506,7 +2747,7 @@
       <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="24">
         <v>4.2666000000000003E-2</v>
       </c>
     </row>
@@ -2514,7 +2755,7 @@
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="24">
         <v>2.2394000000000001E-2</v>
       </c>
     </row>
@@ -2522,7 +2763,7 @@
       <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="24">
         <v>1.0973E-2</v>
       </c>
     </row>
@@ -2530,7 +2771,7 @@
       <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="24">
         <v>9.0460000000000002E-3</v>
       </c>
     </row>
@@ -2538,7 +2779,7 @@
       <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="24">
         <v>3.8509999999999998E-3</v>
       </c>
     </row>
@@ -2546,7 +2787,7 @@
       <c r="B15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="24">
         <v>1.5950000000000001E-3</v>
       </c>
     </row>
@@ -2554,7 +2795,7 @@
       <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="24">
         <v>1.2899999999999999E-4</v>
       </c>
     </row>

--- a/algoritmos.xlsx
+++ b/algoritmos.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Documents\faculdade\projeto3-MachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD9E0B9-F42E-44FD-BA2F-4F4725E12A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03074359-636E-400A-9AC3-49904CDF3C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="3" r:id="rId2"/>
+    <sheet name="7 atributos" sheetId="1" r:id="rId1"/>
+    <sheet name="Todos Atributos" sheetId="5" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
   <si>
     <t>Fold1</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Classe 1</t>
   </si>
   <si>
-    <t>F-measure (acurácia)</t>
-  </si>
-  <si>
     <t>DP</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>Naive Bayes</t>
+  </si>
+  <si>
+    <t>F-measure (acurácia) - 7 Atributos</t>
   </si>
 </sst>
 </file>
@@ -208,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,8 +263,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -384,12 +396,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -461,7 +482,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -471,6 +491,30 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -498,34 +542,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2096,103 +2128,102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="41"/>
+      <c r="B1" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="48"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="38"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
     </row>
     <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="F3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="42" t="s">
-        <v>37</v>
-      </c>
       <c r="G3" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="M3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="42" t="s">
-        <v>37</v>
-      </c>
       <c r="N3" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -2208,8 +2239,12 @@
       <c r="D4" s="26">
         <v>88.4</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="43"/>
+      <c r="E4" s="37">
+        <v>83.7</v>
+      </c>
+      <c r="F4" s="33">
+        <v>84.1</v>
+      </c>
       <c r="G4" s="13">
         <v>84.9</v>
       </c>
@@ -2223,8 +2258,12 @@
       <c r="K4" s="26">
         <v>92.4</v>
       </c>
-      <c r="L4" s="47"/>
-      <c r="M4" s="43"/>
+      <c r="L4" s="37">
+        <v>90.4</v>
+      </c>
+      <c r="M4" s="33">
+        <v>88.7</v>
+      </c>
       <c r="N4" s="13">
         <v>91.7</v>
       </c>
@@ -2242,8 +2281,12 @@
       <c r="D5" s="27">
         <v>84.8</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="44"/>
+      <c r="E5" s="38">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="F5" s="34">
+        <v>79.7</v>
+      </c>
       <c r="G5" s="13">
         <v>81.400000000000006</v>
       </c>
@@ -2257,8 +2300,12 @@
       <c r="K5" s="26">
         <v>90.7</v>
       </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="44"/>
+      <c r="L5" s="38">
+        <v>89.6</v>
+      </c>
+      <c r="M5" s="34">
+        <v>86.5</v>
+      </c>
       <c r="N5" s="13">
         <v>90.4</v>
       </c>
@@ -2276,8 +2323,12 @@
       <c r="D6" s="28">
         <v>94.2</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="45"/>
+      <c r="E6" s="39">
+        <v>86.2</v>
+      </c>
+      <c r="F6" s="35">
+        <v>90</v>
+      </c>
       <c r="G6" s="14">
         <v>88.2</v>
       </c>
@@ -2291,8 +2342,12 @@
       <c r="K6" s="28">
         <v>96.2</v>
       </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="45"/>
+      <c r="L6" s="39">
+        <v>91.7</v>
+      </c>
+      <c r="M6" s="35">
+        <v>93.2</v>
+      </c>
       <c r="N6" s="14">
         <v>93.2</v>
       </c>
@@ -2315,30 +2370,30 @@
     </row>
     <row r="8" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
-        <f>AVERAGE(B4:B6)</f>
+        <f t="shared" ref="B8:G8" si="0">AVERAGE(B4:B6)</f>
         <v>86.566666666666677</v>
       </c>
       <c r="C8" s="1">
-        <f>AVERAGE(C4:C6)</f>
+        <f t="shared" si="0"/>
         <v>91.233333333333348</v>
       </c>
       <c r="D8" s="1">
-        <f>AVERAGE(D4:D6)</f>
+        <f t="shared" si="0"/>
         <v>89.133333333333326</v>
       </c>
-      <c r="E8" s="1" t="e">
-        <f>AVERAGE(E4:E6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="1" t="e">
-        <f>AVERAGE(F4:F6)</f>
-        <v>#DIV/0!</v>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>83.833333333333329</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>84.600000000000009</v>
       </c>
       <c r="G8" s="1">
-        <f>AVERAGE(G4:G6)</f>
+        <f t="shared" si="0"/>
         <v>84.833333333333329</v>
       </c>
       <c r="I8">
@@ -2353,13 +2408,13 @@
         <f>AVERAGE(K4:K6)</f>
         <v>93.100000000000009</v>
       </c>
-      <c r="L8" t="e">
-        <f t="shared" ref="L8:M8" si="0">AVERAGE(L4:L6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="L8">
+        <f t="shared" ref="L8:M8" si="1">AVERAGE(L4:L6)</f>
+        <v>90.566666666666663</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>89.466666666666654</v>
       </c>
       <c r="N8">
         <f>AVERAGE(N4:N6)</f>
@@ -2369,7 +2424,7 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="12">
         <f>_xlfn.STDEV.S(B4:B6)</f>
@@ -2383,13 +2438,13 @@
         <f>_xlfn.STDEV.S(D4:D6)</f>
         <v>4.7427137098219783</v>
       </c>
-      <c r="E9" s="12" t="e">
-        <f t="shared" ref="E9:F9" si="1">_xlfn.STDEV.S(E4:E6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="E9" s="12">
+        <f>_xlfn.STDEV.S(E4:E6)</f>
+        <v>2.3028967265887874</v>
+      </c>
+      <c r="F9" s="12">
+        <f>_xlfn.STDEV.S(F4:F6)</f>
+        <v>5.1681718237690193</v>
       </c>
       <c r="G9" s="12">
         <f>_xlfn.STDEV.S(G4:G6)</f>
@@ -2408,13 +2463,13 @@
         <f>_xlfn.STDEV.S(K4:K6)</f>
         <v>2.8160255680657444</v>
       </c>
-      <c r="L9" s="9" t="e">
-        <f t="shared" ref="L9:M9" si="2">_xlfn.STDEV.S(L4:L6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L9" s="9">
+        <f>_xlfn.STDEV.S(L4:L6)</f>
+        <v>1.0598742063723134</v>
+      </c>
+      <c r="M9" s="9">
+        <f>_xlfn.STDEV.S(M4:M6)</f>
+        <v>3.415162270424839</v>
       </c>
       <c r="N9" s="9">
         <f>_xlfn.STDEV.S(N4:N6)</f>
@@ -2422,51 +2477,49 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
     </row>
     <row r="11" spans="1:17" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="F11" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="42" t="s">
-        <v>37</v>
-      </c>
       <c r="G11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+        <v>15</v>
+      </c>
       <c r="P11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="30">
+        <v>7</v>
+      </c>
+      <c r="B12" s="29">
         <v>88.4</v>
       </c>
       <c r="C12" s="23">
@@ -2475,17 +2528,20 @@
       <c r="D12" s="27">
         <v>88.4</v>
       </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="44"/>
+      <c r="E12" s="37">
+        <v>83.7</v>
+      </c>
+      <c r="F12" s="33">
+        <v>84.1</v>
+      </c>
       <c r="G12" s="13">
         <v>84.9</v>
       </c>
-      <c r="I12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="17">
         <v>82.9</v>
@@ -2496,15 +2552,19 @@
       <c r="D13" s="27">
         <v>84.8</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="44"/>
+      <c r="E13" s="38">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="F13" s="34">
+        <v>79.7</v>
+      </c>
       <c r="G13" s="13">
         <v>81.400000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="17">
         <v>88.4</v>
@@ -2515,15 +2575,19 @@
       <c r="D14" s="27">
         <v>94.2</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="44"/>
+      <c r="E14" s="49">
+        <v>86.2</v>
+      </c>
+      <c r="F14" s="33">
+        <v>90</v>
+      </c>
       <c r="G14" s="13">
         <v>88.2</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="17">
         <v>92.4</v>
@@ -2534,8 +2598,12 @@
       <c r="D15" s="27">
         <v>92.4</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="44"/>
+      <c r="E15" s="37">
+        <v>90.4</v>
+      </c>
+      <c r="F15" s="33">
+        <v>88.7</v>
+      </c>
       <c r="G15" s="13">
         <v>91.7</v>
       </c>
@@ -2543,7 +2611,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="17">
         <v>90.6</v>
@@ -2554,27 +2622,35 @@
       <c r="D16" s="27">
         <v>90.7</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="44"/>
+      <c r="E16" s="38">
+        <v>89.6</v>
+      </c>
+      <c r="F16" s="34">
+        <v>86.5</v>
+      </c>
       <c r="G16" s="13">
         <v>90.4</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="7">
         <v>93.1</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="30">
         <v>95</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="31">
         <v>96.2</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
+      <c r="E17" s="39">
+        <v>91.7</v>
+      </c>
+      <c r="F17" s="35">
+        <v>93.2</v>
+      </c>
       <c r="G17" s="14">
         <v>93.2</v>
       </c>
@@ -2590,59 +2666,59 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1">
         <f>AVERAGE(B12:B17)</f>
         <v>89.300000000000011</v>
       </c>
-      <c r="C19" s="1">
-        <f t="shared" ref="C19:G19" si="3">AVERAGE(C12:C17)</f>
+      <c r="C19" s="50">
+        <f t="shared" ref="C19:G19" si="2">AVERAGE(C12:C17)</f>
         <v>92.63333333333334</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>91.11666666666666</v>
       </c>
-      <c r="E19" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>87.2</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>87.033333333333346</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>88.300000000000011</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="9">
         <f>_xlfn.STDEV.S(B12:B17)</f>
         <v>3.6964848166873319</v>
       </c>
-      <c r="C20" s="9">
-        <f t="shared" ref="C20:G20" si="4">_xlfn.STDEV.S(C12:C17)</f>
+      <c r="C20" s="51">
+        <f t="shared" ref="C20:G20" si="3">_xlfn.STDEV.S(C12:C17)</f>
         <v>2.0558858593479004</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.1097039633855239</v>
       </c>
-      <c r="E20" s="9" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="9" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="E20" s="9">
+        <f t="shared" si="3"/>
+        <v>4.0214425272531269</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="3"/>
+        <v>4.7386355279412102</v>
       </c>
       <c r="G20" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.4533133732087613</v>
       </c>
     </row>
@@ -2659,6 +2735,472 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3B029B-A0EE-4E24-AD87-6FC12D1EBBCF}">
+  <dimension ref="A1:Q21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" customWidth="1"/>
+    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="48"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
+    </row>
+    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="13"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="e">
+        <f t="shared" ref="B8:G8" si="0">AVERAGE(B4:B6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C8" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D8" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E8" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" t="e">
+        <f>AVERAGE(I4:I6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" t="e">
+        <f>AVERAGE(J4:J6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" t="e">
+        <f>AVERAGE(K4:K6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L8" t="e">
+        <f t="shared" ref="L8:M8" si="1">AVERAGE(L4:L6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" t="e">
+        <f>AVERAGE(N4:N6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="e">
+        <f>_xlfn.STDEV.S(B4:B6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C9" s="12" t="e">
+        <f>_xlfn.STDEV.S(C4:C6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D9" s="12" t="e">
+        <f>_xlfn.STDEV.S(D4:D6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E9" s="12" t="e">
+        <f>_xlfn.STDEV.S(E4:E6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9" s="12" t="e">
+        <f>_xlfn.STDEV.S(F4:F6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="12" t="e">
+        <f>_xlfn.STDEV.S(G4:G6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="e">
+        <f>_xlfn.STDEV.S(I4:I6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="9" t="e">
+        <f>_xlfn.STDEV.S(J4:J6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="9" t="e">
+        <f>_xlfn.STDEV.S(K4:K6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L9" s="9" t="e">
+        <f>_xlfn.STDEV.S(L4:L6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="9" t="e">
+        <f>_xlfn.STDEV.S(M4:M6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" s="9" t="e">
+        <f>_xlfn.STDEV.S(N4:N6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="52"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+    </row>
+    <row r="11" spans="1:17" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="13"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="13"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="e">
+        <f>AVERAGE(B12:B17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C19" s="54" t="e">
+        <f t="shared" ref="C19:G19" si="2">AVERAGE(C12:C17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="9" t="e">
+        <f>_xlfn.STDEV.S(B12:B17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C20" s="55" t="e">
+        <f t="shared" ref="C20:G20" si="3">_xlfn.STDEV.S(C12:C17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384908BB-DC3A-4FC9-8AD1-565ED620B0EC}">
   <dimension ref="B1:C16"/>
   <sheetViews>
@@ -2673,7 +3215,7 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="24">
         <v>0.36225099999999999</v>
@@ -2681,7 +3223,7 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="24">
         <v>0.35905599999999999</v>
@@ -2689,7 +3231,7 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="24">
         <v>0.16342000000000001</v>
@@ -2697,7 +3239,7 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="24">
         <v>0.14877199999999999</v>
@@ -2705,7 +3247,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="24">
         <v>0.144653</v>
@@ -2713,7 +3255,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="24">
         <v>8.7842000000000003E-2</v>
@@ -2721,7 +3263,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="24">
         <v>7.2872999999999993E-2</v>
@@ -2729,7 +3271,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="24">
         <v>5.1163E-2</v>
@@ -2737,7 +3279,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="24">
         <v>4.6606000000000002E-2</v>
@@ -2745,7 +3287,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="24">
         <v>4.2666000000000003E-2</v>
@@ -2753,7 +3295,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="24">
         <v>2.2394000000000001E-2</v>
@@ -2761,7 +3303,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="24">
         <v>1.0973E-2</v>
@@ -2769,7 +3311,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="24">
         <v>9.0460000000000002E-3</v>
@@ -2777,7 +3319,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="24">
         <v>3.8509999999999998E-3</v>
@@ -2785,7 +3327,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="24">
         <v>1.5950000000000001E-3</v>
@@ -2793,7 +3335,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="24">
         <v>1.2899999999999999E-4</v>

--- a/algoritmos.xlsx
+++ b/algoritmos.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Documents\faculdade\projeto3-MachineLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03074359-636E-400A-9AC3-49904CDF3C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D227DB-6A88-489A-891F-81739C2EBCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7 atributos" sheetId="1" r:id="rId1"/>
     <sheet name="Todos Atributos" sheetId="5" r:id="rId2"/>
     <sheet name="Planilha1" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha2" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
   <si>
     <t>Fold1</t>
   </si>
@@ -150,6 +151,21 @@
   </si>
   <si>
     <t>F-measure (acurácia) - 7 Atributos</t>
+  </si>
+  <si>
+    <t>F-measure (acurácia) - Todos Atributos</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Todos Atributos</t>
+  </si>
+  <si>
+    <t>7 Atributos</t>
+  </si>
+  <si>
+    <t>Diferença</t>
   </si>
 </sst>
 </file>
@@ -161,7 +177,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +217,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -271,12 +312,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -405,12 +446,137 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -515,33 +681,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -553,11 +692,170 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -988,7 +1286,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha1!$B$1:$B$16</c:f>
+              <c:f>Planilha1!$A$3:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -1044,7 +1342,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$C$1:$C$16</c:f>
+              <c:f>Planilha1!$B$3:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.000_-;\-* #,##0.000_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1826,16 +2124,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>176211</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>426384</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>64153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>356153</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53594</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>41413</xdr:rowOff>
+      <xdr:rowOff>119855</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2129,7 +2427,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="B20" sqref="B20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,41 +2448,41 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="48"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="45"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51"/>
     </row>
     <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -2427,70 +2725,70 @@
         <v>5</v>
       </c>
       <c r="B9" s="12">
-        <f>_xlfn.STDEV.S(B4:B6)</f>
+        <f t="shared" ref="B9:G9" si="2">_xlfn.STDEV.S(B4:B6)</f>
         <v>3.1754264805429413</v>
       </c>
       <c r="C9" s="12">
-        <f>_xlfn.STDEV.S(C4:C6)</f>
+        <f t="shared" si="2"/>
         <v>1.8502252115170499</v>
       </c>
       <c r="D9" s="12">
-        <f>_xlfn.STDEV.S(D4:D6)</f>
+        <f t="shared" si="2"/>
         <v>4.7427137098219783</v>
       </c>
       <c r="E9" s="12">
-        <f>_xlfn.STDEV.S(E4:E6)</f>
+        <f t="shared" si="2"/>
         <v>2.3028967265887874</v>
       </c>
       <c r="F9" s="12">
-        <f>_xlfn.STDEV.S(F4:F6)</f>
+        <f t="shared" si="2"/>
         <v>5.1681718237690193</v>
       </c>
       <c r="G9" s="12">
-        <f>_xlfn.STDEV.S(G4:G6)</f>
+        <f t="shared" si="2"/>
         <v>3.4004901607464362</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9">
-        <f>_xlfn.STDEV.S(I4:I6)</f>
+        <f t="shared" ref="I9:N9" si="3">_xlfn.STDEV.S(I4:I6)</f>
         <v>1.2897028081435418</v>
       </c>
       <c r="J9" s="9">
-        <f>_xlfn.STDEV.S(J4:J6)</f>
+        <f t="shared" si="3"/>
         <v>1.1239810200058258</v>
       </c>
       <c r="K9" s="9">
-        <f>_xlfn.STDEV.S(K4:K6)</f>
+        <f t="shared" si="3"/>
         <v>2.8160255680657444</v>
       </c>
       <c r="L9" s="9">
-        <f>_xlfn.STDEV.S(L4:L6)</f>
+        <f t="shared" si="3"/>
         <v>1.0598742063723134</v>
       </c>
       <c r="M9" s="9">
-        <f>_xlfn.STDEV.S(M4:M6)</f>
+        <f t="shared" si="3"/>
         <v>3.415162270424839</v>
       </c>
       <c r="N9" s="9">
-        <f>_xlfn.STDEV.S(N4:N6)</f>
+        <f t="shared" si="3"/>
         <v>1.4011899704655788</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
     </row>
     <row r="11" spans="1:17" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
@@ -2575,7 +2873,7 @@
       <c r="D14" s="27">
         <v>94.2</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="40">
         <v>86.2</v>
       </c>
       <c r="F14" s="33">
@@ -2672,24 +2970,24 @@
         <f>AVERAGE(B12:B17)</f>
         <v>89.300000000000011</v>
       </c>
-      <c r="C19" s="50">
-        <f t="shared" ref="C19:G19" si="2">AVERAGE(C12:C17)</f>
+      <c r="C19" s="41">
+        <f t="shared" ref="C19:G19" si="4">AVERAGE(C12:C17)</f>
         <v>92.63333333333334</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>91.11666666666666</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>87.2</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>87.033333333333346</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>88.300000000000011</v>
       </c>
     </row>
@@ -2701,24 +2999,24 @@
         <f>_xlfn.STDEV.S(B12:B17)</f>
         <v>3.6964848166873319</v>
       </c>
-      <c r="C20" s="51">
-        <f t="shared" ref="C20:G20" si="3">_xlfn.STDEV.S(C12:C17)</f>
+      <c r="C20" s="42">
+        <f t="shared" ref="C20:G20" si="5">_xlfn.STDEV.S(C12:C17)</f>
         <v>2.0558858593479004</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.1097039633855239</v>
       </c>
       <c r="E20" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.0214425272531269</v>
       </c>
       <c r="F20" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.7386355279412102</v>
       </c>
       <c r="G20" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.4533133732087613</v>
       </c>
     </row>
@@ -2738,8 +3036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3B029B-A0EE-4E24-AD87-6FC12D1EBBCF}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2760,41 +3058,41 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="48"/>
+      <c r="B1" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="54"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="45"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51"/>
     </row>
     <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -2840,55 +3138,127 @@
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="13"/>
+      <c r="B4" s="6">
+        <v>88.4</v>
+      </c>
+      <c r="C4" s="21">
+        <v>92.6</v>
+      </c>
+      <c r="D4" s="26">
+        <v>93.8</v>
+      </c>
+      <c r="E4" s="37">
+        <v>89.7</v>
+      </c>
+      <c r="F4" s="33">
+        <v>84.4</v>
+      </c>
+      <c r="G4" s="13">
+        <v>87.4</v>
+      </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="13"/>
+      <c r="I4" s="6">
+        <v>92.4</v>
+      </c>
+      <c r="J4" s="21">
+        <v>95.3</v>
+      </c>
+      <c r="K4" s="26">
+        <v>96.3</v>
+      </c>
+      <c r="L4" s="37">
+        <v>93.4</v>
+      </c>
+      <c r="M4" s="33">
+        <v>88.6</v>
+      </c>
+      <c r="N4" s="13">
+        <v>92</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="13"/>
+      <c r="B5" s="6">
+        <v>90.3</v>
+      </c>
+      <c r="C5" s="23">
+        <v>97.8</v>
+      </c>
+      <c r="D5" s="27">
+        <v>97.8</v>
+      </c>
+      <c r="E5" s="38">
+        <v>86.6</v>
+      </c>
+      <c r="F5" s="34">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="G5" s="13">
+        <v>90</v>
+      </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="13"/>
+      <c r="I5" s="6">
+        <v>94.6</v>
+      </c>
+      <c r="J5" s="21">
+        <v>98.6</v>
+      </c>
+      <c r="K5" s="26">
+        <v>98.6</v>
+      </c>
+      <c r="L5" s="38">
+        <v>91.5</v>
+      </c>
+      <c r="M5" s="34">
+        <v>83.5</v>
+      </c>
+      <c r="N5" s="13">
+        <v>93.2</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="14"/>
+      <c r="B6" s="7">
+        <v>96.4</v>
+      </c>
+      <c r="C6" s="22">
+        <v>97.8</v>
+      </c>
+      <c r="D6" s="28">
+        <v>98.5</v>
+      </c>
+      <c r="E6" s="39">
+        <v>90.2</v>
+      </c>
+      <c r="F6" s="35">
+        <v>90.6</v>
+      </c>
+      <c r="G6" s="14">
+        <v>89.9</v>
+      </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="14"/>
+      <c r="I6" s="7">
+        <v>97.6</v>
+      </c>
+      <c r="J6" s="22">
+        <v>98.6</v>
+      </c>
+      <c r="K6" s="28">
+        <v>99.1</v>
+      </c>
+      <c r="L6" s="39">
+        <v>93.9</v>
+      </c>
+      <c r="M6" s="35">
+        <v>93.7</v>
+      </c>
+      <c r="N6" s="14">
+        <v>94</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -2910,53 +3280,53 @@
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="e">
+      <c r="B8" s="1">
         <f t="shared" ref="B8:G8" si="0">AVERAGE(B4:B6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C8" s="1" t="e">
+        <v>91.7</v>
+      </c>
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8" s="1" t="e">
+        <v>96.066666666666663</v>
+      </c>
+      <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="1" t="e">
+        <v>96.7</v>
+      </c>
+      <c r="E8" s="1">
+        <f>AVERAGE(E4:E6)</f>
+        <v>88.833333333333329</v>
+      </c>
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="1" t="e">
+        <v>82.3</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" t="e">
+        <v>89.100000000000009</v>
+      </c>
+      <c r="I8">
         <f>AVERAGE(I4:I6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" t="e">
+        <v>94.866666666666674</v>
+      </c>
+      <c r="J8">
         <f>AVERAGE(J4:J6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" t="e">
+        <v>97.5</v>
+      </c>
+      <c r="K8">
         <f>AVERAGE(K4:K6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" t="e">
+        <v>98</v>
+      </c>
+      <c r="L8">
         <f t="shared" ref="L8:M8" si="1">AVERAGE(L4:L6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" t="e">
+        <v>92.933333333333337</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" t="e">
+        <v>88.600000000000009</v>
+      </c>
+      <c r="N8">
         <f>AVERAGE(N4:N6)</f>
-        <v>#DIV/0!</v>
+        <v>93.066666666666663</v>
       </c>
       <c r="P8" s="16"/>
     </row>
@@ -2964,71 +3334,71 @@
       <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="e">
-        <f>_xlfn.STDEV.S(B4:B6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" s="12" t="e">
-        <f>_xlfn.STDEV.S(C4:C6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="12" t="e">
-        <f>_xlfn.STDEV.S(D4:D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" s="12" t="e">
+      <c r="B9" s="12">
+        <f t="shared" ref="B9:G9" si="2">_xlfn.STDEV.S(B4:B6)</f>
+        <v>4.1797129088012746</v>
+      </c>
+      <c r="C9" s="12">
+        <f t="shared" si="2"/>
+        <v>3.0022213997860558</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="2"/>
+        <v>2.5357444666211939</v>
+      </c>
+      <c r="E9" s="12">
         <f>_xlfn.STDEV.S(E4:E6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="12" t="e">
-        <f>_xlfn.STDEV.S(F4:F6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="12" t="e">
-        <f>_xlfn.STDEV.S(G4:G6)</f>
-        <v>#DIV/0!</v>
+        <v>1.9502136635080147</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="2"/>
+        <v>9.5252296560240435</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4730919862656218</v>
       </c>
       <c r="H9" s="9"/>
-      <c r="I9" s="9" t="e">
-        <f>_xlfn.STDEV.S(I4:I6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" s="9" t="e">
-        <f>_xlfn.STDEV.S(J4:J6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" s="9" t="e">
-        <f>_xlfn.STDEV.S(K4:K6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="9" t="e">
-        <f>_xlfn.STDEV.S(L4:L6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="9" t="e">
-        <f>_xlfn.STDEV.S(M4:M6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="9" t="e">
-        <f>_xlfn.STDEV.S(N4:N6)</f>
-        <v>#DIV/0!</v>
+      <c r="I9" s="9">
+        <f t="shared" ref="I9:N9" si="3">_xlfn.STDEV.S(I4:I6)</f>
+        <v>2.6102362600602471</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="3"/>
+        <v>1.9052558883257633</v>
+      </c>
+      <c r="K9" s="9">
+        <f t="shared" si="3"/>
+        <v>1.4933184523068062</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" si="3"/>
+        <v>1.2662279942148418</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="3"/>
+        <v>5.1000000000000014</v>
+      </c>
+      <c r="N9" s="9">
+        <f t="shared" si="3"/>
+        <v>1.0066445913694335</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
     </row>
     <row r="11" spans="1:17" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
@@ -3057,69 +3427,142 @@
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="13"/>
+      <c r="B12" s="6">
+        <v>88.4</v>
+      </c>
+      <c r="C12" s="21">
+        <v>92.6</v>
+      </c>
+      <c r="D12" s="26">
+        <v>93.8</v>
+      </c>
+      <c r="E12" s="37">
+        <v>89.7</v>
+      </c>
+      <c r="F12" s="33">
+        <v>84.4</v>
+      </c>
+      <c r="G12" s="13">
+        <v>87.4</v>
+      </c>
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="13"/>
+      <c r="B13" s="6">
+        <v>90.3</v>
+      </c>
+      <c r="C13" s="23">
+        <v>97.8</v>
+      </c>
+      <c r="D13" s="27">
+        <v>97.8</v>
+      </c>
+      <c r="E13" s="38">
+        <v>86.6</v>
+      </c>
+      <c r="F13" s="34">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="G13" s="13">
+        <v>90</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="13"/>
+      <c r="B14" s="6">
+        <v>96.4</v>
+      </c>
+      <c r="C14" s="21">
+        <v>97.8</v>
+      </c>
+      <c r="D14" s="26">
+        <v>98.5</v>
+      </c>
+      <c r="E14" s="37">
+        <v>90.2</v>
+      </c>
+      <c r="F14" s="33">
+        <v>90.6</v>
+      </c>
+      <c r="G14" s="13">
+        <v>89.9</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="13"/>
+      <c r="B15" s="6">
+        <v>92.4</v>
+      </c>
+      <c r="C15" s="21">
+        <v>95.3</v>
+      </c>
+      <c r="D15" s="26">
+        <v>96.3</v>
+      </c>
+      <c r="E15" s="37">
+        <v>93.4</v>
+      </c>
+      <c r="F15" s="33">
+        <v>88.6</v>
+      </c>
+      <c r="G15" s="13">
+        <v>92</v>
+      </c>
+      <c r="K15" s="2"/>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="13"/>
+      <c r="B16" s="6">
+        <v>94.6</v>
+      </c>
+      <c r="C16" s="21">
+        <v>98.6</v>
+      </c>
+      <c r="D16" s="26">
+        <v>98.6</v>
+      </c>
+      <c r="E16" s="38">
+        <v>91.5</v>
+      </c>
+      <c r="F16" s="34">
+        <v>83.5</v>
+      </c>
+      <c r="G16" s="13">
+        <v>93.2</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="14"/>
+      <c r="B17" s="7">
+        <v>97.6</v>
+      </c>
+      <c r="C17" s="22">
+        <v>98.6</v>
+      </c>
+      <c r="D17" s="28">
+        <v>99.1</v>
+      </c>
+      <c r="E17" s="39">
+        <v>93.9</v>
+      </c>
+      <c r="F17" s="35">
+        <v>93.7</v>
+      </c>
+      <c r="G17" s="14">
+        <v>94</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
@@ -3134,58 +3577,58 @@
       <c r="A19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="1" t="e">
+      <c r="B19" s="1">
         <f>AVERAGE(B12:B17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C19" s="54" t="e">
-        <f t="shared" ref="C19:G19" si="2">AVERAGE(C12:C17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>93.283333333333346</v>
+      </c>
+      <c r="C19" s="41">
+        <f t="shared" ref="C19:G19" si="4">AVERAGE(C12:C17)</f>
+        <v>96.783333333333346</v>
+      </c>
+      <c r="D19" s="41">
+        <f t="shared" si="4"/>
+        <v>97.350000000000009</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="4"/>
+        <v>90.883333333333326</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="4"/>
+        <v>85.45</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="4"/>
+        <v>91.083333333333329</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="9" t="e">
+      <c r="B20" s="9">
         <f>_xlfn.STDEV.S(B12:B17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C20" s="55" t="e">
-        <f t="shared" ref="C20:G20" si="3">_xlfn.STDEV.S(C12:C17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>3.5667445474363109</v>
+      </c>
+      <c r="C20" s="42">
+        <f t="shared" ref="C20:G20" si="5">_xlfn.STDEV.S(C12:C17)</f>
+        <v>2.3819459831546701</v>
+      </c>
+      <c r="D20" s="42">
+        <f t="shared" si="5"/>
+        <v>1.9927368115232873</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="5"/>
+        <v>2.6843372863086126</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="5"/>
+        <v>7.655259629823143</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="5"/>
+        <v>2.4481966151979413</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -3202,147 +3645,368 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384908BB-DC3A-4FC9-8AD1-565ED620B0EC}">
-  <dimension ref="B1:C16"/>
+  <dimension ref="A3:B18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="24">
+        <v>0.36225099999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="24">
+        <v>0.35905599999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="24">
+        <v>0.16342000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="24">
+        <v>0.14877199999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="24">
+        <v>0.144653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="24">
+        <v>8.7842000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="24">
+        <v>7.2872999999999993E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="24">
+        <v>5.1163E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="24">
+        <v>4.6606000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="24">
+        <v>4.2666000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="24">
+        <v>2.2394000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="24">
+        <v>1.0973E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="24">
+        <v>9.0460000000000002E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="24">
+        <v>3.8509999999999998E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="24">
+        <v>1.5950000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="24">
+        <v>1.2899999999999999E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18EE84F7-6C99-4305-9E46-AB9611733AAA}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L17:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="24">
-        <v>0.36225099999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="24">
-        <v>0.35905599999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="24">
-        <v>0.16342000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="24">
-        <v>0.14877199999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="24">
-        <v>0.144653</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="24">
-        <v>8.7842000000000003E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="24">
-        <v>7.2872999999999993E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="24">
-        <v>5.1163E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="24">
-        <v>4.6606000000000002E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="24">
-        <v>4.2666000000000003E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="24">
-        <v>2.2394000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="24">
-        <v>1.0973E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="24">
-        <v>9.0460000000000002E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="24">
-        <v>3.8509999999999998E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="24">
-        <v>1.5950000000000001E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="24">
-        <v>1.2899999999999999E-4</v>
-      </c>
-    </row>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="59"/>
+      <c r="G1" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="59"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="70">
+        <v>85.45</v>
+      </c>
+      <c r="C3" s="71">
+        <v>7.655259629823143</v>
+      </c>
+      <c r="D3" s="70">
+        <v>87.033333333333346</v>
+      </c>
+      <c r="E3" s="74">
+        <v>4.7386355279412102</v>
+      </c>
+      <c r="F3" s="85"/>
+      <c r="G3" s="71">
+        <f>D3-B3</f>
+        <v>1.5833333333333428</v>
+      </c>
+      <c r="H3" s="88">
+        <f>E3-C3</f>
+        <v>-2.9166241018819328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="68">
+        <v>90.883333333333326</v>
+      </c>
+      <c r="C4" s="69">
+        <v>2.6843372863086126</v>
+      </c>
+      <c r="D4" s="68">
+        <v>87.2</v>
+      </c>
+      <c r="E4" s="73">
+        <v>4.0214425272531269</v>
+      </c>
+      <c r="F4" s="85"/>
+      <c r="G4" s="90">
+        <f t="shared" ref="G4:G8" si="0">D4-B4</f>
+        <v>-3.6833333333333229</v>
+      </c>
+      <c r="H4" s="95">
+        <f t="shared" ref="H4:H8" si="1">E4-C4</f>
+        <v>1.3371052409445143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="75">
+        <v>91.083333333333329</v>
+      </c>
+      <c r="C5" s="76">
+        <v>2.4481966151979413</v>
+      </c>
+      <c r="D5" s="75">
+        <v>88.300000000000011</v>
+      </c>
+      <c r="E5" s="78">
+        <v>4.4533133732087613</v>
+      </c>
+      <c r="F5" s="85"/>
+      <c r="G5" s="91">
+        <f t="shared" si="0"/>
+        <v>-2.7833333333333172</v>
+      </c>
+      <c r="H5" s="96">
+        <f t="shared" si="1"/>
+        <v>2.00511675801082</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="66">
+        <v>93.283333333333346</v>
+      </c>
+      <c r="C6" s="67">
+        <v>3.5667445474363109</v>
+      </c>
+      <c r="D6" s="66">
+        <v>89.300000000000011</v>
+      </c>
+      <c r="E6" s="72">
+        <v>3.6964848166873319</v>
+      </c>
+      <c r="F6" s="85"/>
+      <c r="G6" s="92">
+        <f t="shared" si="0"/>
+        <v>-3.9833333333333343</v>
+      </c>
+      <c r="H6" s="97">
+        <f t="shared" si="1"/>
+        <v>0.129740269251021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="80">
+        <v>96.783333333333346</v>
+      </c>
+      <c r="C7" s="82">
+        <v>2.3819459831546701</v>
+      </c>
+      <c r="D7" s="80">
+        <v>92.63333333333334</v>
+      </c>
+      <c r="E7" s="81">
+        <v>2.0558858593479004</v>
+      </c>
+      <c r="F7" s="85"/>
+      <c r="G7" s="93">
+        <f t="shared" si="0"/>
+        <v>-4.1500000000000057</v>
+      </c>
+      <c r="H7" s="89">
+        <f t="shared" si="1"/>
+        <v>-0.32606012380676974</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="83">
+        <v>97.350000000000009</v>
+      </c>
+      <c r="C8" s="84">
+        <v>1.9927368115232873</v>
+      </c>
+      <c r="D8" s="77">
+        <v>91.11666666666666</v>
+      </c>
+      <c r="E8" s="79">
+        <v>4.1097039633855239</v>
+      </c>
+      <c r="F8" s="85"/>
+      <c r="G8" s="94">
+        <f t="shared" si="0"/>
+        <v>-6.2333333333333485</v>
+      </c>
+      <c r="H8" s="98">
+        <f t="shared" si="1"/>
+        <v>2.1169671518622364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E8">
+    <sortCondition ref="B3:B8"/>
+    <sortCondition ref="C3:C8"/>
+    <sortCondition ref="D3:D8"/>
+    <sortCondition ref="E3:E8"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>